--- a/Crawling/crawling_data/week_genie/week_genie_20220124.xlsx
+++ b/Crawling/crawling_data/week_genie/week_genie_20220124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>날짜</t>
   </si>
@@ -82,8 +82,7 @@
     <t>호랑수월가</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>Dreams Come True</t>
@@ -236,8 +235,7 @@
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
@@ -565,9 +563,6 @@
   </si>
   <si>
     <t>그 해 우리는 OST Part.1</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>Dreams Come True - SM STATION</t>
@@ -1384,7 +1379,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1401,7 +1396,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1469,7 +1464,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1503,7 +1498,7 @@
         <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1537,7 +1532,7 @@
         <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1554,7 +1549,7 @@
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1606,7 +1601,7 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1623,7 +1618,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1640,7 +1635,7 @@
         <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1657,7 +1652,7 @@
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1674,7 +1669,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1691,7 +1686,7 @@
         <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1742,7 +1737,7 @@
         <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1793,7 +1788,7 @@
         <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1810,7 +1805,7 @@
         <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1827,7 +1822,7 @@
         <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1861,7 +1856,7 @@
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1878,7 +1873,7 @@
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1895,7 +1890,7 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1912,7 +1907,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1929,7 +1924,7 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1946,7 +1941,7 @@
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1980,7 +1975,7 @@
         <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1997,7 +1992,7 @@
         <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2014,7 +2009,7 @@
         <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2031,7 +2026,7 @@
         <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2048,7 +2043,7 @@
         <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2065,7 +2060,7 @@
         <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2099,7 +2094,7 @@
         <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2116,7 +2111,7 @@
         <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2150,7 +2145,7 @@
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2167,7 +2162,7 @@
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2184,7 +2179,7 @@
         <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2201,7 +2196,7 @@
         <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2218,7 +2213,7 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2235,7 +2230,7 @@
         <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2252,7 +2247,7 @@
         <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2269,7 +2264,7 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2337,7 +2332,7 @@
         <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2354,7 +2349,7 @@
         <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2371,7 +2366,7 @@
         <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2422,7 +2417,7 @@
         <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2439,7 +2434,7 @@
         <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2456,7 +2451,7 @@
         <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2473,7 +2468,7 @@
         <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2575,7 +2570,7 @@
         <v>128</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2626,7 +2621,7 @@
         <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2643,7 +2638,7 @@
         <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2660,7 +2655,7 @@
         <v>169</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2677,7 +2672,7 @@
         <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2728,7 +2723,7 @@
         <v>172</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2745,7 +2740,7 @@
         <v>173</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2762,7 +2757,7 @@
         <v>128</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2779,7 +2774,7 @@
         <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:5">
